--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2739798.953279342</v>
+        <v>-2740511.218033087</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166956.7258165585</v>
+        <v>166956.7258165586</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="F8" t="n">
         <v>3.199249640013477</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,52 +1215,52 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316379</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>58.3868639861467</v>
       </c>
       <c r="I11" t="n">
-        <v>10.01588859841878</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294981</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013697</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>181.6409504451652</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139.7576044802184</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>100.2491376706018</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050422</v>
+        <v>13.44964351050425</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82929343736549</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930764</v>
+        <v>59.08630782930766</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586126</v>
+        <v>62.50715706586129</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747061</v>
+        <v>88.56281972747064</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992962</v>
+        <v>39.17115058992965</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448464</v>
+        <v>45.24252228448466</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386648</v>
+        <v>25.28944752386651</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345549</v>
+        <v>57.29676508345553</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433108</v>
       </c>
       <c r="U13" t="n">
         <v>110.5147946356657</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490895</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1689432397943</v>
+        <v>112.1689432397944</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870158</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462747</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>166.0185085031497</v>
       </c>
       <c r="G14" t="n">
-        <v>169.8341806276762</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294981</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692372</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.37638767482494</v>
+        <v>9.376387674824969</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050422</v>
+        <v>21.55536897172182</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736549</v>
+        <v>36.82929343736552</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930764</v>
+        <v>59.08630782930766</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586126</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747061</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X15" t="n">
-        <v>100.961329042881</v>
+        <v>39.17115058992965</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448464</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386648</v>
+        <v>25.28944752386651</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345549</v>
+        <v>57.29676508345553</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433108</v>
       </c>
       <c r="U16" t="n">
         <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490895</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1689432397943</v>
+        <v>112.1689432397944</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870158</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462747</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636843</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426084</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="18">
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>104.9750354595075</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.4783038239311</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423126</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>106.6665152207956</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.68915414892586</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>166.0185085031498</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426084</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W24" t="n">
-        <v>29.33442143502892</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>166.9864020550211</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442055</v>
+        <v>27.52412960442052</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754902</v>
+        <v>14.03037772754899</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335768</v>
+        <v>8.978123394335739</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945436</v>
+        <v>36.66251709945433</v>
       </c>
       <c r="V26" t="n">
         <v>107.3917542570231</v>
       </c>
       <c r="W26" t="n">
-        <v>124.408434473638</v>
+        <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
         <v>146.2946849425772</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.797538066321</v>
+        <v>168.7975380663209</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>61.69567732531569</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.8011008889476</v>
+        <v>1.483027934777508</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671968</v>
+        <v>23.74004232671965</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327331</v>
+        <v>27.16089156327328</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488263</v>
       </c>
       <c r="X27" t="n">
-        <v>3.82488508734167</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896682</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086754</v>
+        <v>21.95049958086751</v>
       </c>
       <c r="T28" t="n">
-        <v>10.2736479017431</v>
+        <v>10.27364790174307</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307773</v>
+        <v>75.1685291330777</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232097</v>
+        <v>31.62098583232094</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720639</v>
+        <v>76.82267773720636</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113594</v>
+        <v>8.431426056113565</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039484</v>
+        <v>3.653243462039455</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095071</v>
+        <v>157.9908827095072</v>
       </c>
       <c r="F29" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3502055971889</v>
+        <v>205.350205597189</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040773999</v>
+        <v>133.5340040774</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442045</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754893</v>
+        <v>14.03037772754896</v>
       </c>
       <c r="T29" t="n">
-        <v>8.97812339433569</v>
+        <v>8.978123394335718</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24.58996546298064</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>133.5702699707319</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777451</v>
+        <v>1.48302793477748</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671959</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327322</v>
+        <v>27.16089156327325</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488257</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341585</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086745</v>
+        <v>21.95049958086748</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113509</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039399</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="32">
@@ -3108,7 +3108,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.573143475556916</v>
+        <v>57.63317596296055</v>
       </c>
       <c r="U33" t="n">
-        <v>214.9300380553376</v>
+        <v>22.83015786749906</v>
       </c>
       <c r="V33" t="n">
         <v>26.25100710405269</v>
@@ -3171,10 +3171,10 @@
         <v>52.30666976566204</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121049</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>8.986372322676061</v>
       </c>
     </row>
     <row r="34">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>99.92276128772593</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.0073830228504</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>115.7809794859269</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.37377636525707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,16 +3740,16 @@
         <v>133.0750814212838</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1933384246292</v>
+        <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76000068567771</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E41" t="n">
         <v>130.4667531050866</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1870906834639</v>
+        <v>162.187090683464</v>
       </c>
       <c r="G41" t="n">
         <v>177.8260759927684</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033726</v>
+        <v>9.138387495033783</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260244</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88430486921732</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X41" t="n">
         <v>118.7705553381566</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2734084619003</v>
+        <v>141.2734084619004</v>
       </c>
     </row>
     <row r="42">
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>123.454289540761</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>76.32189516038947</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046202</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64439952865708</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900332</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278575</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>77.76412528552622</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>189.3534227944452</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
         <v>7.065308212205419</v>
@@ -4823,31 +4823,31 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="D9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="E9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="F9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,46 +4887,46 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="N9" t="n">
-        <v>10.58577698768566</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06747772449921</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
         <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="X9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>386.1720182067493</v>
+        <v>409.1000889702111</v>
       </c>
       <c r="C11" t="n">
-        <v>386.1720182067493</v>
+        <v>235.2983379281526</v>
       </c>
       <c r="D11" t="n">
-        <v>386.1720182067493</v>
+        <v>74.05551389513607</v>
       </c>
       <c r="E11" t="n">
-        <v>386.1720182067493</v>
+        <v>74.05551389513607</v>
       </c>
       <c r="F11" t="n">
-        <v>386.1720182067493</v>
+        <v>74.05551389513607</v>
       </c>
       <c r="G11" t="n">
-        <v>195.7820736852974</v>
+        <v>74.05551389513607</v>
       </c>
       <c r="H11" t="n">
-        <v>25.19594279642099</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115223</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1128385102957</v>
+        <v>184.7715035048723</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8239968493322</v>
+        <v>305.4248677503373</v>
       </c>
       <c r="M11" t="n">
-        <v>412.6751204626776</v>
+        <v>492.0260523758123</v>
       </c>
       <c r="N11" t="n">
-        <v>599.2763050881525</v>
+        <v>567.3429956794745</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4050806852712</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852712</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9441803049494</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686366</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664779</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695852</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="U11" t="n">
-        <v>569.6477257271181</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="V11" t="n">
-        <v>569.6477257271181</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="W11" t="n">
-        <v>569.6477257271181</v>
+        <v>592.5757964905799</v>
       </c>
       <c r="X11" t="n">
-        <v>386.1720182067493</v>
+        <v>409.1000889702111</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.1720182067493</v>
+        <v>409.1000889702111</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>257.4995455740758</v>
+        <v>116.3406388289291</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609899</v>
@@ -5127,10 +5127,10 @@
         <v>170.3626975743617</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576279</v>
+        <v>352.0310247576281</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831029</v>
+        <v>538.632209383103</v>
       </c>
       <c r="O12" t="n">
         <v>670.3253369263742</v>
@@ -5139,31 +5139,31 @@
         <v>753.9441803049494</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398756</v>
+        <v>753.9441803049494</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398756</v>
+        <v>617.8614934590256</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4155611444169</v>
+        <v>604.2759949635667</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2142546420275</v>
+        <v>413.8860504421149</v>
       </c>
       <c r="U12" t="n">
-        <v>636.5311154205046</v>
+        <v>354.202911220592</v>
       </c>
       <c r="V12" t="n">
-        <v>573.3925729297357</v>
+        <v>291.064368729823</v>
       </c>
       <c r="W12" t="n">
-        <v>483.935179265624</v>
+        <v>201.6069750657113</v>
       </c>
       <c r="X12" t="n">
-        <v>444.3683604879172</v>
+        <v>162.0401562880045</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.6688430288418</v>
+        <v>116.3406388289291</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882615</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C13" t="n">
-        <v>15.59847835882615</v>
+        <v>26.6466206548919</v>
       </c>
       <c r="D13" t="n">
-        <v>48.22800082166812</v>
+        <v>26.6466206548919</v>
       </c>
       <c r="E13" t="n">
-        <v>84.32896723261095</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="F13" t="n">
-        <v>84.32896723261095</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="G13" t="n">
-        <v>84.32896723261095</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="H13" t="n">
-        <v>84.32896723261095</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="I13" t="n">
-        <v>84.32896723261095</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6501557751963</v>
+        <v>62.74758706583471</v>
       </c>
       <c r="K13" t="n">
-        <v>251.6476235074588</v>
+        <v>172.7450547980972</v>
       </c>
       <c r="L13" t="n">
-        <v>251.6476235074588</v>
+        <v>172.7450547980972</v>
       </c>
       <c r="M13" t="n">
-        <v>251.6476235074588</v>
+        <v>324.1363892763662</v>
       </c>
       <c r="N13" t="n">
-        <v>411.6488015358109</v>
+        <v>324.1363892763662</v>
       </c>
       <c r="O13" t="n">
-        <v>411.6488015358109</v>
+        <v>402.3069076016775</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385322</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="R13" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429522</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566335</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461981</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536063</v>
+        <v>279.6378685536064</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365267</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804752</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471257</v>
+        <v>54.4723270047126</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609899</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>692.2592669717438</v>
+        <v>373.1642912620456</v>
       </c>
       <c r="C14" t="n">
-        <v>518.4575159296854</v>
+        <v>373.1642912620456</v>
       </c>
       <c r="D14" t="n">
-        <v>357.214691896669</v>
+        <v>373.1642912620456</v>
       </c>
       <c r="E14" t="n">
-        <v>357.214691896669</v>
+        <v>182.7743467405937</v>
       </c>
       <c r="F14" t="n">
-        <v>357.214691896669</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6650144949757</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H14" t="n">
         <v>15.07888360609899</v>
@@ -5276,52 +5276,52 @@
         <v>15.07888360609899</v>
       </c>
       <c r="J14" t="n">
-        <v>107.2320509049788</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K14" t="n">
-        <v>276.9246708037522</v>
+        <v>113.2895028151791</v>
       </c>
       <c r="L14" t="n">
-        <v>323.6358291427887</v>
+        <v>299.8906874406541</v>
       </c>
       <c r="M14" t="n">
-        <v>404.486952756134</v>
+        <v>380.7418110539994</v>
       </c>
       <c r="N14" t="n">
-        <v>479.8038960597962</v>
+        <v>567.3429956794744</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4050806852712</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852712</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686366</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0313769686366</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="T14" t="n">
-        <v>692.2592669717438</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="U14" t="n">
-        <v>692.2592669717438</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="V14" t="n">
-        <v>692.2592669717438</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="W14" t="n">
-        <v>692.2592669717438</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="X14" t="n">
-        <v>692.2592669717438</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="Y14" t="n">
-        <v>692.2592669717438</v>
+        <v>563.5542357834975</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>336.2545213591939</v>
+        <v>24.54998226753835</v>
       </c>
       <c r="C15" t="n">
-        <v>326.7834226977545</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D15" t="n">
-        <v>326.7834226977545</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E15" t="n">
-        <v>326.7834226977545</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F15" t="n">
-        <v>326.7834226977545</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936462</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576279</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6322093831029</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263741</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0010596398755</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0010596398755</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4155611444168</v>
+        <v>732.171080333513</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2142546420274</v>
+        <v>694.9697738311236</v>
       </c>
       <c r="U15" t="n">
-        <v>636.5311154205045</v>
+        <v>635.2866346096007</v>
       </c>
       <c r="V15" t="n">
-        <v>573.3925729297356</v>
+        <v>444.8966900881488</v>
       </c>
       <c r="W15" t="n">
-        <v>483.9351792656238</v>
+        <v>254.5067455666969</v>
       </c>
       <c r="X15" t="n">
-        <v>381.9540388182693</v>
+        <v>214.9399267889902</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.2545213591939</v>
+        <v>24.54998226753835</v>
       </c>
     </row>
     <row r="16">
@@ -5425,58 +5425,58 @@
         <v>15.07888360609899</v>
       </c>
       <c r="G16" t="n">
-        <v>24.42543511222853</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H16" t="n">
-        <v>36.61938290478773</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I16" t="n">
-        <v>49.77446291552926</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J16" t="n">
-        <v>107.0956514581146</v>
+        <v>72.40007214868434</v>
       </c>
       <c r="K16" t="n">
-        <v>107.0956514581146</v>
+        <v>72.40007214868434</v>
       </c>
       <c r="L16" t="n">
-        <v>250.9155731234081</v>
+        <v>72.40007214868434</v>
       </c>
       <c r="M16" t="n">
-        <v>402.3069076016771</v>
+        <v>223.7914066269533</v>
       </c>
       <c r="N16" t="n">
-        <v>402.3069076016771</v>
+        <v>351.8936825085037</v>
       </c>
       <c r="O16" t="n">
-        <v>402.3069076016771</v>
+        <v>351.8936825085037</v>
       </c>
       <c r="P16" t="n">
-        <v>520.770111631706</v>
+        <v>470.3568865385325</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="R16" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429522</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566335</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461981</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536063</v>
+        <v>279.6378685536064</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365267</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804752</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471257</v>
+        <v>54.4723270047126</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609899</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417496</v>
+        <v>463.36627394175</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731535</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135985</v>
+        <v>369.3523344135988</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879741</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336859</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151398</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95425539993043</v>
+        <v>201.680068231574</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95425539993043</v>
+        <v>201.680068231574</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6654137389669</v>
+        <v>350.740752589497</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5165373523123</v>
+        <v>431.5918762028424</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8334806559745</v>
+        <v>618.1930608283174</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0437757327568</v>
+        <v>652.4033559050997</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6449603582319</v>
+        <v>652.4033559050997</v>
       </c>
       <c r="Q17" t="n">
-        <v>494.6449603582319</v>
+        <v>652.4033559050997</v>
       </c>
       <c r="R17" t="n">
-        <v>596.1857847580814</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="S17" t="n">
-        <v>665.4199709100155</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="T17" t="n">
-        <v>739.6558888518309</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394101</v>
+        <v>730.2796801394102</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985023</v>
+        <v>689.4266140985025</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515952</v>
+        <v>626.4662243515954</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342399</v>
+        <v>540.7756799342401</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.5542357834975</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="C18" t="n">
-        <v>563.5542357834975</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="D18" t="n">
-        <v>457.5188464304596</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="E18" t="n">
-        <v>283.9556425518741</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="F18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="G18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07888360609899</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936462</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L18" t="n">
         <v>170.3626975743617</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576279</v>
+        <v>352.031024757628</v>
       </c>
       <c r="N18" t="n">
         <v>538.6322093831029</v>
@@ -5613,31 +5613,31 @@
         <v>753.9441803049493</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049493</v>
+        <v>747.0010596398755</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049493</v>
+        <v>747.0010596398755</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9441803049493</v>
+        <v>556.6111151184236</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5542357834975</v>
+        <v>556.6111151184236</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5542357834975</v>
+        <v>366.2211705969718</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5542357834975</v>
+        <v>175.8312260755199</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5542357834975</v>
+        <v>175.8312260755199</v>
       </c>
       <c r="X18" t="n">
-        <v>563.5542357834975</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="Y18" t="n">
-        <v>563.5542357834975</v>
+        <v>68.0872713070395</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417497</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731531</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135983</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G20" t="n">
         <v>65.149696721514</v>
@@ -5747,55 +5747,55 @@
         <v>15.07888360609899</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6654137389669</v>
+        <v>61.79004194513547</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5165373523123</v>
+        <v>248.3912265706104</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8334806559745</v>
+        <v>434.9924111960854</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0437757327568</v>
+        <v>469.2027062728678</v>
       </c>
       <c r="P20" t="n">
-        <v>349.7396169539428</v>
+        <v>469.2027062728678</v>
       </c>
       <c r="Q20" t="n">
-        <v>536.3408015794178</v>
+        <v>469.2027062728678</v>
       </c>
       <c r="R20" t="n">
-        <v>637.8816259792673</v>
+        <v>570.7435306727173</v>
       </c>
       <c r="S20" t="n">
-        <v>707.1158121312014</v>
+        <v>632.8798941893861</v>
       </c>
       <c r="T20" t="n">
         <v>707.1158121312014</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394102</v>
+        <v>730.2796801394099</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985023</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515952</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342399</v>
+        <v>540.7756799342397</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>688.7291867621726</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C21" t="n">
-        <v>499.3169124951363</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D21" t="n">
-        <v>499.3169124951363</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E21" t="n">
-        <v>325.7537086165507</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G21" t="n">
         <v>15.07888360609899</v>
@@ -5838,7 +5838,7 @@
         <v>170.3626975743617</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576279</v>
+        <v>352.031024757628</v>
       </c>
       <c r="N21" t="n">
         <v>538.6322093831029</v>
@@ -5850,31 +5850,31 @@
         <v>753.9441803049493</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0010596398755</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0010596398755</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0010596398755</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0010596398755</v>
+        <v>586.2487171704546</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0010596398755</v>
+        <v>586.2487171704546</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0010596398755</v>
+        <v>395.8587726490027</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0010596398755</v>
+        <v>395.8587726490027</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0010596398755</v>
+        <v>205.4688281275509</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.0010596398755</v>
+        <v>15.07888360609899</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417496</v>
+        <v>463.3662739417495</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731528</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135982</v>
+        <v>369.3523344135981</v>
       </c>
       <c r="E23" t="n">
         <v>294.5776034879739</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336856</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151398</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J23" t="n">
-        <v>38.414178679301</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K23" t="n">
-        <v>38.414178679301</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L23" t="n">
-        <v>85.12533701833749</v>
+        <v>248.3912265706104</v>
       </c>
       <c r="M23" t="n">
-        <v>165.9764606316829</v>
+        <v>329.2423501839558</v>
       </c>
       <c r="N23" t="n">
-        <v>241.2934039353451</v>
+        <v>515.8435348094307</v>
       </c>
       <c r="O23" t="n">
-        <v>275.5036990121274</v>
+        <v>550.0538298862131</v>
       </c>
       <c r="P23" t="n">
-        <v>275.5036990121274</v>
+        <v>550.0538298862131</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1048836376024</v>
+        <v>637.881625979267</v>
       </c>
       <c r="R23" t="n">
-        <v>563.6457080374519</v>
+        <v>637.881625979267</v>
       </c>
       <c r="S23" t="n">
-        <v>632.8798941893861</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312014</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394101</v>
+        <v>730.2796801394099</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985022</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515951</v>
+        <v>626.466224351595</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342396</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>538.834477990689</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="C24" t="n">
-        <v>349.4222037236528</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D24" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
         <v>53.03690762936461</v>
@@ -6075,43 +6075,43 @@
         <v>170.3626975743617</v>
       </c>
       <c r="M24" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N24" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263742</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398756</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0010596398756</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0010596398756</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0010596398756</v>
+        <v>563.5542357834973</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0010596398756</v>
+        <v>563.5542357834973</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0010596398756</v>
+        <v>373.1642912620455</v>
       </c>
       <c r="W24" t="n">
-        <v>717.3703309176242</v>
+        <v>373.1642912620455</v>
       </c>
       <c r="X24" t="n">
-        <v>717.3703309176242</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.3703309176242</v>
+        <v>204.4911578731353</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>1020.877441161907</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073114</v>
+        <v>882.7789886073108</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617574</v>
+        <v>757.2394630617569</v>
       </c>
       <c r="E26" t="n">
-        <v>597.652712850134</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098465</v>
+        <v>406.025217609846</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116758</v>
+        <v>198.6007675116753</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026099</v>
+        <v>63.71793511026093</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476705</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.935344594006</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916499</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636027</v>
+        <v>926.2039246636029</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025874</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161264</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.840732969351</v>
+        <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.372635436592</v>
+        <v>1777.37263543659</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.789199734234</v>
+        <v>1795.789199734232</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019538</v>
+        <v>1781.617101019536</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510107</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955103</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
         <v>1627.038924503564</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176657</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143751</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.098866440396</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>347.6203230863402</v>
+        <v>98.23464997985201</v>
       </c>
       <c r="C27" t="n">
-        <v>347.6203230863402</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D27" t="n">
-        <v>347.6203230863402</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
-        <v>347.6203230863402</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F27" t="n">
-        <v>347.6203230863402</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3732143586444</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H27" t="n">
-        <v>197.3732143586444</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I27" t="n">
-        <v>88.92417169562518</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K27" t="n">
-        <v>73.8738080179503</v>
+        <v>73.87380801795027</v>
       </c>
       <c r="L27" t="n">
         <v>191.1995979629473</v>
@@ -6327,28 +6327,28 @@
         <v>786.1332122026944</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1332122026944</v>
+        <v>650.0505253567705</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1332122026944</v>
+        <v>650.0505253567705</v>
       </c>
       <c r="T27" t="n">
-        <v>682.2937163552725</v>
+        <v>648.5525173418438</v>
       </c>
       <c r="U27" t="n">
-        <v>658.3138756212122</v>
+        <v>624.5726766077835</v>
       </c>
       <c r="V27" t="n">
-        <v>630.8786316179059</v>
+        <v>597.1374326044771</v>
       </c>
       <c r="W27" t="n">
-        <v>361.4800623481972</v>
+        <v>543.383337427828</v>
       </c>
       <c r="X27" t="n">
-        <v>357.616542057953</v>
+        <v>323.8753430445244</v>
       </c>
       <c r="Y27" t="n">
-        <v>347.6203230863402</v>
+        <v>98.23464997985201</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H28" t="n">
-        <v>83.10253463480595</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I28" t="n">
-        <v>131.2504174931096</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J28" t="n">
-        <v>223.564408883257</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K28" t="n">
-        <v>223.564408883257</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="L28" t="n">
-        <v>223.564408883257</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="M28" t="n">
-        <v>223.564408883257</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="N28" t="n">
-        <v>223.564408883257</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="O28" t="n">
-        <v>223.564408883257</v>
+        <v>210.1609470742073</v>
       </c>
       <c r="P28" t="n">
-        <v>223.564408883257</v>
+        <v>210.1609470742073</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192997</v>
+        <v>256.1827763203651</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192997</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204435</v>
+        <v>243.9668043204433</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974707</v>
+        <v>233.5893821974705</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923417</v>
+        <v>157.6615749923415</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627245</v>
+        <v>125.7211852627244</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170798</v>
+        <v>48.1225208817079</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583567</v>
+        <v>39.60592890583561</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468467</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617567</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501333</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098458</v>
+        <v>406.0252176098459</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116752</v>
+        <v>198.6007675116753</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026112</v>
+        <v>63.717935110261</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476701</v>
+        <v>171.2499218476699</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940057</v>
+        <v>375.9353445940054</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916499</v>
+        <v>633.9996519916496</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636029</v>
+        <v>926.2039246636027</v>
       </c>
       <c r="N29" t="n">
         <v>1212.874017025873</v>
@@ -6506,7 +6506,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.6062850118954</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="C30" t="n">
-        <v>665.6062850118954</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="D30" t="n">
-        <v>504.8261687729271</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="E30" t="n">
-        <v>331.2629648943415</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8352486115856</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G30" t="n">
         <v>35.91578399468465</v>
@@ -6543,7 +6543,7 @@
         <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795028</v>
+        <v>73.87380801795027</v>
       </c>
       <c r="L30" t="n">
         <v>191.1995979629473</v>
@@ -6573,19 +6573,19 @@
         <v>784.6352041877676</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6553634537074</v>
+        <v>545.0108893606478</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2201194504012</v>
+        <v>517.5756453573414</v>
       </c>
       <c r="W30" t="n">
-        <v>679.4660242737521</v>
+        <v>463.8215501806923</v>
       </c>
       <c r="X30" t="n">
-        <v>675.6025039835081</v>
+        <v>244.3135557973886</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.6062850118954</v>
+        <v>234.3173368257759</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>35.91578399468465</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E31" t="n">
-        <v>145.1367398168321</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9522754791777</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G31" t="n">
-        <v>218.9522754791777</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K31" t="n">
-        <v>266.139026119299</v>
+        <v>86.62026766576801</v>
       </c>
       <c r="L31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="M31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="N31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="O31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="P31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S31" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974703</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V31" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583556</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468465</v>
@@ -6677,25 +6677,25 @@
         <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848167</v>
+        <v>876.9831877848163</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505968</v>
+        <v>752.3627374505963</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503073</v>
+        <v>593.6950624503069</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213538</v>
+        <v>402.9866424213533</v>
       </c>
       <c r="G32" t="n">
-        <v>196.481267534517</v>
+        <v>196.4812675345173</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443703</v>
+        <v>62.51751034443701</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
         <v>171.8693579078084</v>
@@ -6704,10 +6704,10 @@
         <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810449</v>
+        <v>636.4206592810448</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676263</v>
+        <v>929.5257175676261</v>
       </c>
       <c r="N32" t="n">
         <v>1217.096595544524</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.64282214113518</v>
+        <v>225.0467087072309</v>
       </c>
       <c r="C33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="D33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I33" t="n">
-        <v>88.64282214113518</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
-        <v>73.5924584634603</v>
+        <v>73.59245846346028</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084574</v>
+        <v>190.9182484084573</v>
       </c>
       <c r="M33" t="n">
-        <v>372.5865755917236</v>
+        <v>372.5865755917235</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914319</v>
+        <v>577.4830123914318</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347031</v>
+        <v>709.176139934703</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132783</v>
+        <v>792.7949833132782</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.7949833132783</v>
+        <v>792.7949833132782</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132783</v>
+        <v>792.7949833132782</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132783</v>
+        <v>792.7949833132782</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096855</v>
+        <v>734.5796540577625</v>
       </c>
       <c r="U33" t="n">
-        <v>575.1150019689404</v>
+        <v>711.5188885350361</v>
       </c>
       <c r="V33" t="n">
-        <v>548.598833176968</v>
+        <v>685.0027197430637</v>
       </c>
       <c r="W33" t="n">
-        <v>495.7638132116528</v>
+        <v>632.1676997777486</v>
       </c>
       <c r="X33" t="n">
-        <v>492.8193681327426</v>
+        <v>412.6597053944449</v>
       </c>
       <c r="Y33" t="n">
-        <v>267.1786750680703</v>
+        <v>403.582561634166</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="C34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="L34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="M34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="N34" t="n">
-        <v>35.63443444019467</v>
+        <v>84.27820139132089</v>
       </c>
       <c r="O34" t="n">
-        <v>35.63443444019467</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="P34" t="n">
-        <v>189.9912269324141</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="Q34" t="n">
         <v>259.4241500854719</v>
@@ -6895,13 +6895,13 @@
         <v>122.6826100742327</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455006</v>
+        <v>46.00302090455005</v>
       </c>
       <c r="X34" t="n">
-        <v>38.4055041400117</v>
+        <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379701</v>
+        <v>623.0203756379699</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837509</v>
+        <v>544.0845948837507</v>
       </c>
       <c r="D35" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385737</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273271</v>
+        <v>377.2836627273268</v>
       </c>
       <c r="F35" t="n">
         <v>244.8188392874163</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962317</v>
+        <v>96.55706098962315</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5733467117585</v>
+        <v>51.57334671175849</v>
       </c>
       <c r="J35" t="n">
-        <v>178.5660607733182</v>
+        <v>115.575061455144</v>
       </c>
       <c r="K35" t="n">
-        <v>178.5660607733182</v>
+        <v>115.575061455144</v>
       </c>
       <c r="L35" t="n">
-        <v>225.2772191123547</v>
+        <v>373.4317037638915</v>
       </c>
       <c r="M35" t="n">
-        <v>306.1283427257001</v>
+        <v>454.2828273772369</v>
       </c>
       <c r="N35" t="n">
-        <v>381.4452860293623</v>
+        <v>529.599770680899</v>
       </c>
       <c r="O35" t="n">
-        <v>415.6555811061446</v>
+        <v>787.4564129896465</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0441875457808</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5614246445704</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9633235737613</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0585842550369</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781208</v>
+        <v>992.5311717781206</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515903</v>
+        <v>926.02875825159</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190607</v>
+        <v>837.4190210190604</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160828</v>
+        <v>726.0791291160825</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>777.9974492616692</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C36" t="n">
-        <v>777.9974492616692</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D36" t="n">
-        <v>617.2173330227009</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E36" t="n">
-        <v>443.6541291441154</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F36" t="n">
-        <v>283.2264128613594</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G36" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84528808952616</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
         <v>58.79492441185128</v>
@@ -7041,25 +7041,25 @@
         <v>777.9974492616692</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616692</v>
+        <v>608.2930219658607</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616692</v>
+        <v>608.2930219658607</v>
       </c>
       <c r="U36" t="n">
-        <v>777.9974492616692</v>
+        <v>608.2930219658607</v>
       </c>
       <c r="V36" t="n">
-        <v>777.9974492616692</v>
+        <v>608.2930219658607</v>
       </c>
       <c r="W36" t="n">
-        <v>777.9974492616692</v>
+        <v>608.2930219658607</v>
       </c>
       <c r="X36" t="n">
-        <v>777.9974492616692</v>
+        <v>388.7850275825571</v>
       </c>
       <c r="Y36" t="n">
-        <v>777.9974492616692</v>
+        <v>388.7850275825571</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="U37" t="n">
         <v>39.27289296922554</v>
@@ -7132,13 +7132,13 @@
         <v>39.27289296922554</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379707</v>
+        <v>623.0203756379705</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837515</v>
+        <v>544.0845948837513</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385742</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273275</v>
+        <v>377.2836627273272</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874167</v>
+        <v>244.8188392874164</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962317</v>
+        <v>96.55706098962315</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J38" t="n">
-        <v>178.5660607733182</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5660607733182</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2772191123547</v>
+        <v>278.6935426973332</v>
       </c>
       <c r="M38" t="n">
-        <v>306.1283427257001</v>
+        <v>484.0589360368078</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4452860293623</v>
+        <v>559.37587934047</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6555811061446</v>
+        <v>817.2325216492175</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457808</v>
+        <v>817.2325216492175</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5614246445704</v>
+        <v>997.749758748007</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9633235737613</v>
+        <v>997.749758748007</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550369</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781211</v>
+        <v>992.5311717781209</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515907</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190611</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160833</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705.0202110559317</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="C39" t="n">
-        <v>515.6079367888954</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="D39" t="n">
-        <v>354.8278205499271</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2646166713416</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858566</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858566</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858566</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
         <v>58.79492441185128</v>
@@ -7272,31 +7272,31 @@
         <v>777.9974492616692</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="R39" t="n">
-        <v>771.0543285965954</v>
+        <v>641.9147624157454</v>
       </c>
       <c r="S39" t="n">
-        <v>771.0543285965954</v>
+        <v>641.9147624157454</v>
       </c>
       <c r="T39" t="n">
-        <v>771.0543285965954</v>
+        <v>424.772280307759</v>
       </c>
       <c r="U39" t="n">
-        <v>771.0543285965954</v>
+        <v>424.772280307759</v>
       </c>
       <c r="V39" t="n">
-        <v>771.0543285965954</v>
+        <v>307.82179597854</v>
       </c>
       <c r="W39" t="n">
-        <v>771.0543285965954</v>
+        <v>307.82179597854</v>
       </c>
       <c r="X39" t="n">
-        <v>771.0543285965954</v>
+        <v>307.82179597854</v>
       </c>
       <c r="Y39" t="n">
-        <v>705.0202110559317</v>
+        <v>307.82179597854</v>
       </c>
     </row>
     <row r="40">
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="U40" t="n">
         <v>39.27289296922554</v>
@@ -7369,13 +7369,13 @@
         <v>39.27289296922554</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.411998154369</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153496</v>
+        <v>708.1156967153501</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853722</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893251</v>
+        <v>478.5937231893256</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646142</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G41" t="n">
-        <v>135.14608008202</v>
+        <v>135.1460800820201</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K41" t="n">
-        <v>259.9997098508941</v>
+        <v>226.7221472588704</v>
       </c>
       <c r="L41" t="n">
-        <v>545.3129055569148</v>
+        <v>512.0353429648909</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1640291702602</v>
+        <v>592.8864665782363</v>
       </c>
       <c r="N41" t="n">
-        <v>701.4809724739224</v>
+        <v>906.8054472488825</v>
       </c>
       <c r="O41" t="n">
-        <v>974.2933049176888</v>
+        <v>1179.617779692649</v>
       </c>
       <c r="P41" t="n">
-        <v>1197.945465034152</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="Q41" t="n">
-        <v>1347.726255809769</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="R41" t="n">
-        <v>1393.391708415787</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.269939809111</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.269939809111</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.039245369683</v>
+        <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.53168490506</v>
+        <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172819</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>539.7660092248894</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>539.7660092248894</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>539.7660092248894</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>366.2028053463039</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>205.775089063548</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
-        <v>205.775089063548</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07378649712274</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07378649712274</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
         <v>66.02342281944786</v>
@@ -7515,25 +7515,25 @@
         <v>785.2259476692658</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692658</v>
+        <v>591.6992735682101</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692658</v>
+        <v>374.5567914602237</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692658</v>
+        <v>374.5567914602237</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692658</v>
+        <v>297.4639680658909</v>
       </c>
       <c r="W42" t="n">
-        <v>759.2740036081931</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X42" t="n">
-        <v>539.7660092248894</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y42" t="n">
-        <v>539.7660092248894</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>90.82668470484789</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1258067652157</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1258067652157</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566314</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162239</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.411998154369</v>
+        <v>818.4119981543699</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153495</v>
+        <v>708.1156967153504</v>
       </c>
       <c r="D44" t="n">
-        <v>610.378322285372</v>
+        <v>610.3783222853729</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893246</v>
+        <v>478.5937231893255</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646134</v>
+        <v>314.7683790646144</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J44" t="n">
         <v>190.6484249575439</v>
@@ -7655,43 +7655,43 @@
         <v>469.2938943512922</v>
       </c>
       <c r="M44" t="n">
-        <v>550.1450179646376</v>
+        <v>681.7077131696037</v>
       </c>
       <c r="N44" t="n">
-        <v>679.63984336116</v>
+        <v>995.6266938402498</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049264</v>
+        <v>1029.836988917032</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.10433592139</v>
+        <v>1253.489149033496</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.885126697006</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.550579303025</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.909393661127</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.269939809111</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.039245369683</v>
+        <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.53168490506</v>
+        <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.831272317282</v>
+        <v>952.8312723172829</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.8455150351505</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8455150351505</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
         <v>66.02342281944786</v>
@@ -7749,28 +7749,28 @@
         <v>785.2259476692658</v>
       </c>
       <c r="R45" t="n">
-        <v>649.143260823342</v>
+        <v>706.6763261687342</v>
       </c>
       <c r="S45" t="n">
-        <v>649.143260823342</v>
+        <v>513.1496520676785</v>
       </c>
       <c r="T45" t="n">
-        <v>649.143260823342</v>
+        <v>513.1496520676785</v>
       </c>
       <c r="U45" t="n">
-        <v>457.8771771925892</v>
+        <v>273.5253372405587</v>
       </c>
       <c r="V45" t="n">
-        <v>214.7974590962233</v>
+        <v>273.5253372405587</v>
       </c>
       <c r="W45" t="n">
-        <v>188.8455150351505</v>
+        <v>247.5733931794859</v>
       </c>
       <c r="X45" t="n">
-        <v>188.8455150351505</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.8455150351505</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.59935258996336</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R46" t="n">
-        <v>107.804490697274</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S46" t="n">
-        <v>113.3223844205914</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T46" t="n">
         <v>130.125806765216</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566331</v>
+        <v>82.00015067566332</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162248</v>
+        <v>77.86191206162249</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96717530900611</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.59935258996336</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8535,10 +8535,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.2041989925474</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
@@ -8547,7 +8547,7 @@
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,10 +8778,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1338058733769</v>
+        <v>292.133805873377</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N24" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9454765282923</v>
+        <v>195.9454765282924</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>193.3371482120952</v>
@@ -23270,13 +23270,13 @@
         <v>225.0574857904725</v>
       </c>
       <c r="G11" t="n">
-        <v>52.21042602353964</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>110.4934055938414</v>
       </c>
       <c r="I11" t="n">
-        <v>52.85450650858971</v>
+        <v>62.87039510700853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294985</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.376643230137</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692376</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204234</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>142.7380197596111</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9454765282923</v>
+        <v>7.459431452055043</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316379</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857869</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904725</v>
+        <v>59.03897728732278</v>
       </c>
       <c r="G14" t="n">
-        <v>70.86229047210081</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700849</v>
+        <v>62.87039510700853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294984</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013697</v>
+        <v>49.37664323013701</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692375</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>72.00878260204234</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>142.7380197596111</v>
       </c>
       <c r="W14" t="n">
         <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>181.6409504451652</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>15.6577584926716</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.229532815939493e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26320,34 +26320,34 @@
         <v>110308.3247818153</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.34843518097</v>
+        <v>94965.34843518099</v>
       </c>
       <c r="F2" t="n">
-        <v>94965.348435181</v>
+        <v>94965.34843518099</v>
       </c>
       <c r="G2" t="n">
-        <v>110464.8186073169</v>
+        <v>110464.818607317</v>
       </c>
       <c r="H2" t="n">
         <v>110464.8186073169</v>
       </c>
       <c r="I2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="J2" t="n">
         <v>110464.8186073168</v>
       </c>
       <c r="K2" t="n">
-        <v>110464.8186073168</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="L2" t="n">
         <v>110464.8186073169</v>
       </c>
       <c r="M2" t="n">
-        <v>110464.8186073168</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="N2" t="n">
-        <v>110464.8186073168</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="O2" t="n">
         <v>110464.8186073169</v>
@@ -26372,13 +26372,13 @@
         <v>1092.445151390297</v>
       </c>
       <c r="E3" t="n">
-        <v>279010.1432673799</v>
+        <v>279010.1432673798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658169</v>
+        <v>95448.13167658176</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710104</v>
+        <v>143490.4163710103</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395812</v>
+        <v>96176.03924395821</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852183</v>
+        <v>46128.92849852178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134119</v>
+        <v>72249.07655134116</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>278809.5434581143</v>
       </c>
       <c r="G4" t="n">
+        <v>349424.6097629185</v>
+      </c>
+      <c r="H4" t="n">
         <v>349424.6097629184</v>
       </c>
-      <c r="H4" t="n">
-        <v>349424.6097629185</v>
-      </c>
       <c r="I4" t="n">
-        <v>349424.6097629185</v>
+        <v>349424.6097629184</v>
       </c>
       <c r="J4" t="n">
-        <v>350153.975640944</v>
+        <v>350153.9756409439</v>
       </c>
       <c r="K4" t="n">
         <v>350153.975640944</v>
@@ -26454,10 +26454,10 @@
         <v>349329.303575735</v>
       </c>
       <c r="O4" t="n">
+        <v>349716.3329031965</v>
+      </c>
+      <c r="P4" t="n">
         <v>349716.3329031964</v>
-      </c>
-      <c r="P4" t="n">
-        <v>349716.3329031963</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>38671.63774774209</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020609</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="K5" t="n">
         <v>47448.92101020608</v>
@@ -26500,16 +26500,16 @@
         <v>47311.58842539591</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860085</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860085</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105828</v>
       </c>
       <c r="P5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316600.7143152978</v>
+        <v>-316605.180699503</v>
       </c>
       <c r="C6" t="n">
-        <v>-316600.7143152978</v>
+        <v>-316605.1806995029</v>
       </c>
       <c r="D6" t="n">
-        <v>-317561.0349963827</v>
+        <v>-317564.1648728927</v>
       </c>
       <c r="E6" t="n">
-        <v>-491495.6898106571</v>
+        <v>-491805.6792140998</v>
       </c>
       <c r="F6" t="n">
-        <v>-212485.5465432772</v>
+        <v>-212795.5359467199</v>
       </c>
       <c r="G6" t="n">
-        <v>-373079.5605799253</v>
+        <v>-373079.5605799254</v>
       </c>
       <c r="H6" t="n">
         <v>-277631.4289033436</v>
@@ -26543,25 +26543,25 @@
         <v>-277631.4289033436</v>
       </c>
       <c r="J6" t="n">
-        <v>-430628.4944148437</v>
+        <v>-430628.4944148435</v>
       </c>
       <c r="K6" t="n">
-        <v>-287138.0780438333</v>
+        <v>-287138.0780438332</v>
       </c>
       <c r="L6" t="n">
-        <v>-383160.5263955609</v>
+        <v>-383160.526395561</v>
       </c>
       <c r="M6" t="n">
-        <v>-325906.3921255408</v>
+        <v>-325906.3921255406</v>
       </c>
       <c r="N6" t="n">
-        <v>-279777.463627019</v>
+        <v>-279777.4636270189</v>
       </c>
       <c r="O6" t="n">
         <v>-355297.145158279</v>
       </c>
       <c r="P6" t="n">
-        <v>-283048.0686069377</v>
+        <v>-283048.0686069378</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H2" t="n">
         <v>297.4519284452681</v>
@@ -26707,7 +26707,7 @@
         <v>297.4519284452681</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K2" t="n">
         <v>213.488029352129</v>
@@ -26722,7 +26722,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="O2" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="P2" t="n">
         <v>241.0121589565495</v>
@@ -26799,25 +26799,25 @@
         <v>188.4860450762374</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9472999335584</v>
+        <v>448.947299933558</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9472999335581</v>
+        <v>448.947299933558</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024333</v>
+        <v>445.4304305024332</v>
       </c>
       <c r="M4" t="n">
         <v>260.4612548573207</v>
@@ -26826,10 +26826,10 @@
         <v>260.4612548573207</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8174849522778</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8174849522778</v>
+        <v>350.8174849522781</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>94.17786475640182</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549477</v>
+        <v>120.2200490549478</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315228</v>
+        <v>57.66116062315223</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844958</v>
+        <v>63.13094927844946</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.461254857321</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495708</v>
+        <v>90.35623009495737</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>94.17786475640182</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.3012636738836</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4551793114576</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27935,7 +27935,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>156.0746564816438</v>
+        <v>155.6554456454537</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27944,13 +27944,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>145.445348963967</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>124.739558327962</v>
       </c>
       <c r="I9" t="n">
-        <v>111.3389500165922</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -28111,28 +28111,28 @@
         <v>178.141763849541</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K11" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>74.68909687518028</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8182434465956</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4083245674877</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.25099042458214</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163697</v>
+        <v>15.10088611163699</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037102</v>
       </c>
       <c r="R11" t="n">
         <v>178.141763849541</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.99288991744737</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>87.26901385376409</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="T12" t="n">
-        <v>178.141763849541</v>
+        <v>26.48501221066911</v>
       </c>
       <c r="U12" t="n">
         <v>178.141763849541</v>
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="C13" t="n">
-        <v>166.4571809719723</v>
-      </c>
       <c r="D13" t="n">
-        <v>178.141763849541</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>178.141763849541</v>
@@ -28269,28 +28269,28 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>178.141763849541</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M13" t="n">
-        <v>25.22122397250155</v>
+        <v>178.141763849541</v>
       </c>
       <c r="N13" t="n">
+        <v>16.52441230575095</v>
+      </c>
+      <c r="O13" t="n">
+        <v>116.4429336408044</v>
+      </c>
+      <c r="P13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="O13" t="n">
-        <v>37.48281412028788</v>
-      </c>
-      <c r="P13" t="n">
-        <v>117.7830577613514</v>
-      </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28348,28 +28348,28 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>169.8708873782849</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>105.9377227488407</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O14" t="n">
         <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>15.10088611163697</v>
+        <v>15.10088611163699</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037102</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28418,16 +28418,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R15" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>170.0360383883234</v>
       </c>
       <c r="T15" t="n">
         <v>178.141763849541</v>
@@ -28463,16 +28463,16 @@
         <v>178.141763849541</v>
       </c>
       <c r="V15" t="n">
+        <v>52.16287583916491</v>
+      </c>
+      <c r="W15" t="n">
+        <v>78.21853850077426</v>
+      </c>
+      <c r="X15" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="W15" t="n">
-        <v>178.141763849541</v>
-      </c>
-      <c r="X15" t="n">
-        <v>116.3515853965896</v>
-      </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>34.89824105778828</v>
       </c>
     </row>
     <row r="16">
@@ -28497,37 +28497,37 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.141763849541</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H16" t="n">
-        <v>178.141763849541</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I16" t="n">
-        <v>178.141763849541</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="K16" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L16" t="n">
-        <v>177.4285982528989</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52441230575094</v>
+        <v>145.9206505699433</v>
       </c>
       <c r="O16" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2193142604766</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R16" t="n">
         <v>178.141763849541</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567908</v>
+        <v>265.2729250819164</v>
       </c>
       <c r="K17" t="n">
         <v>6.735077083103221</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>103.3833596150369</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163697</v>
       </c>
       <c r="Q17" t="n">
         <v>89.718430900371</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452681</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
-        <v>264.5831640809959</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="18">
@@ -28646,13 +28646,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>54.19727961707105</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446376404189</v>
@@ -28661,10 +28661,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423126</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807864</v>
       </c>
       <c r="T18" t="n">
-        <v>26.48501221066911</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261128</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916491</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>110.646399218675</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28819,7 +28819,7 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
         <v>76.78688000567908</v>
@@ -28831,28 +28831,28 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>57.21789744616824</v>
+        <v>15.10088611163697</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2044759766084</v>
+        <v>89.718430900371</v>
       </c>
       <c r="R20" t="n">
         <v>297.4519284452681</v>
       </c>
       <c r="S20" t="n">
+        <v>290.2824106318686</v>
+      </c>
+      <c r="T20" t="n">
         <v>297.4519284452681</v>
-      </c>
-      <c r="T20" t="n">
-        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
         <v>297.4519284452681</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.0613402487399</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
         <v>125.7358448975026</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423126</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
@@ -28931,22 +28931,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>48.9525487837567</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916491</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323327</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.89824105778828</v>
       </c>
     </row>
     <row r="22">
@@ -29059,10 +29059,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>100.3578851301256</v>
+        <v>76.78688000567908</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103221</v>
+        <v>195.2211221593405</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,16 +29080,16 @@
         <v>15.10088611163697</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2044759766084</v>
+        <v>178.4333764489104</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
         <v>297.4519284452681</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U23" t="n">
         <v>297.4519284452681</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423126</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
@@ -29168,19 +29168,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916494</v>
       </c>
       <c r="W24" t="n">
-        <v>237.3701621419827</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>50.32651238444947</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4880293521307</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>125.8224741990502</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H27" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>112.1699563979588</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4880293521289</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4880293521289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29448,58 +29448,58 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
-        <v>213.4880293521289</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>213.4880293521289</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
-        <v>213.4880293521289</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028788</v>
+        <v>213.488029352129</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q28" t="n">
-        <v>170.2239781352671</v>
+        <v>173.7060104687168</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4312113734075</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4880293521289</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="29">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>152.1605289346851</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>15.17436766968697</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
         <v>125.7358448975026</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.488029352129</v>
@@ -29654,7 +29654,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="X30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.488029352129</v>
@@ -29673,19 +29673,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>183.6949599109556</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.488029352129</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
-        <v>213.488029352129</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
         <v>164.8538042427314</v>
@@ -29694,22 +29694,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K31" t="n">
-        <v>67.03321058462937</v>
+        <v>118.2498607574409</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613787</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P31" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
@@ -29788,7 +29788,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="P32" t="n">
-        <v>192.2835716884566</v>
+        <v>192.2835716884564</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3979138113496</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
@@ -29879,10 +29879,10 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
+        <v>157.3378813239459</v>
+      </c>
+      <c r="U33" t="n">
         <v>214.3979138113496</v>
-      </c>
-      <c r="U33" t="n">
-        <v>22.298033623511</v>
       </c>
       <c r="V33" t="n">
         <v>214.3979138113496</v>
@@ -29891,10 +29891,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>214.3979138113496</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29931,25 +29931,25 @@
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575094</v>
+        <v>65.65953043820168</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028788</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3979138113496</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.3535800716461</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
         <v>203.4312113734075</v>
@@ -30007,13 +30007,13 @@
         <v>272.0590744345018</v>
       </c>
       <c r="J35" t="n">
-        <v>205.0623487547293</v>
+        <v>141.4350767161695</v>
       </c>
       <c r="K35" t="n">
-        <v>6.735077083103221</v>
+        <v>6.735077083103235</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2782666360717</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,25 +30022,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.9054012444093</v>
       </c>
       <c r="P35" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037102</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30062,31 +30062,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>48.82187635269295</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>23.58402433719479</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
@@ -30128,7 +30128,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.1736155997077</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30168,22 +30168,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K37" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900675</v>
+        <v>94.03865673374639</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2193142604766</v>
@@ -30241,43 +30241,43 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
-        <v>205.0623487547293</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K38" t="n">
-        <v>6.735077083103221</v>
+        <v>6.735077083103235</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2782666360717</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>125.7719896223528</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.9054012444093</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0590744345018</v>
+        <v>15.10088611163699</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446376404189</v>
@@ -30320,10 +30320,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I39" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,22 +30344,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>124.8679414294754</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>158.0105097687685</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3813398018976</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I40" t="n">
         <v>164.8538042427314</v>
@@ -30405,22 +30405,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2193142604766</v>
@@ -30429,7 +30429,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4385289329965</v>
+        <v>270.9952238677361</v>
       </c>
       <c r="T40" t="n">
         <v>223.761677253872</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="I41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567908</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K41" t="n">
-        <v>241.0121589565496</v>
+        <v>207.3984593686468</v>
       </c>
       <c r="L41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0121589565496</v>
+        <v>89.71843090037102</v>
       </c>
       <c r="R41" t="n">
-        <v>241.0121589565496</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S41" t="n">
-        <v>237.4964185880861</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T41" t="n">
         <v>222.4661527464647</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
     </row>
     <row r="42">
@@ -30545,22 +30545,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
-        <v>2.28155535674162</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>164.3270257550128</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565496</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.0121589565496</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30633,7 +30633,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>205.5207277564184</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
         <v>164.8538042427314</v>
@@ -30642,22 +30642,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028788</v>
+        <v>140.57413530113</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2193142604766</v>
@@ -30672,13 +30672,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U43" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="V43" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0121589565496</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30727,13 +30727,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>132.8916113181476</v>
       </c>
       <c r="N44" t="n">
-        <v>54.72513342713152</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
@@ -30742,13 +30742,13 @@
         <v>241.0121589565495</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0121589565495</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T44" t="n">
-        <v>241.0121589565495</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U44" t="n">
         <v>241.0121589565495</v>
@@ -30779,7 +30779,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423133</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.9577346919384</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>47.8746488844034</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,34 +30879,34 @@
         <v>120.241573402485</v>
       </c>
       <c r="K46" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613788</v>
       </c>
       <c r="M46" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O46" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900676</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2193142604766</v>
+        <v>230.3106354413188</v>
       </c>
       <c r="R46" t="n">
-        <v>241.0121589565495</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>241.0121589565495</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>240.7348311373312</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -30918,10 +30918,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.0121589565495</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I11" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R11" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T11" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U11" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K12" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R12" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I13" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J13" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O13" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P13" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I14" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R14" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T14" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U14" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K15" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R15" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I16" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J16" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O16" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P16" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I26" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R26" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T26" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K27" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R27" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,43 +33099,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I28" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J28" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O28" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P28" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I29" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R29" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T29" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K30" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R30" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I31" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J31" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O31" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P31" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I32" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R32" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T32" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U32" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K33" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R33" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T33" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I34" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J34" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O34" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P34" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I35" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R35" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T35" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U35" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K36" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R36" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S36" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T36" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I37" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J37" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O37" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P37" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I38" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R38" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T38" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U38" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K39" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R39" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S39" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T39" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I40" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J40" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O40" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P40" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I41" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R41" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T41" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U41" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K42" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R42" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S42" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T42" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I43" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J43" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O43" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P43" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I44" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565829</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594153</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355903</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762486</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467111</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883912</v>
       </c>
       <c r="R44" t="n">
         <v>25.54467690305776</v>
       </c>
       <c r="S44" t="n">
-        <v>9.266699698381053</v>
+        <v>9.266699698381052</v>
       </c>
       <c r="T44" t="n">
         <v>1.780141653523337</v>
       </c>
       <c r="U44" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327978</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K45" t="n">
         <v>35.13452037190601</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914542</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604042</v>
+        <v>55.1300008660404</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452711</v>
+        <v>56.5891279445271</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572086</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R45" t="n">
         <v>13.50909282083553</v>
       </c>
       <c r="S45" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894772</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809437</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>1.621812027281924</v>
       </c>
       <c r="I46" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248058</v>
       </c>
       <c r="J46" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L46" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804557</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O46" t="n">
         <v>25.78316298586845</v>
       </c>
       <c r="P46" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27455069866441</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769314</v>
+        <v>8.201924628769312</v>
       </c>
       <c r="S46" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813338</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189196</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539413</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
@@ -35267,7 +35267,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4066867664378</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124898</v>
+        <v>121.8720850964292</v>
       </c>
       <c r="M11" t="n">
-        <v>81.6678016296418</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="N11" t="n">
+        <v>76.07772050874966</v>
+      </c>
+      <c r="O11" t="n">
         <v>188.4860450762374</v>
       </c>
-      <c r="O11" t="n">
-        <v>67.80684403749359</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916997</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M12" t="n">
         <v>183.503360791178</v>
@@ -35501,10 +35501,10 @@
         <v>188.4860450762374</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0233611548195</v>
+        <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845728874</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.6845828775686</v>
       </c>
       <c r="D13" t="n">
-        <v>32.95911359883027</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.46562263731599</v>
+        <v>36.46562263731596</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90019044705595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>111.1085532649116</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N13" t="n">
-        <v>161.61735154379</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>78.96011952051649</v>
       </c>
       <c r="P13" t="n">
-        <v>59.3010959623447</v>
+        <v>119.6598020505342</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906441</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>93.08400737260587</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664378</v>
+        <v>99.20264566573749</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124898</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M14" t="n">
-        <v>81.6678016296418</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N14" t="n">
-        <v>76.07772050874969</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916997</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M15" t="n">
         <v>183.503360791178</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O15" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,28 +35793,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.440961117302569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238303</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.28795960680962</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705595</v>
+        <v>57.90019044705592</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.272648146761</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>152.9205398770394</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>129.3962382641923</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>119.6598020505342</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.92244958906438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124898</v>
+        <v>150.5663478362859</v>
       </c>
       <c r="M17" t="n">
         <v>81.6678016296418</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874969</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O17" t="n">
         <v>34.55585361291145</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>102.5664892927774</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559014</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>14.43261762941265</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O18" t="n">
         <v>133.0233611548194</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,28 +36127,28 @@
         <v>47.18298822124898</v>
       </c>
       <c r="M20" t="n">
-        <v>81.6678016296418</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874969</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O20" t="n">
         <v>34.55585361291145</v>
       </c>
       <c r="P20" t="n">
-        <v>42.11701133453127</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.5664892927773</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93352136559014</v>
+        <v>62.76400355219069</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U20" t="n">
         <v>47.30138199368479</v>
@@ -36206,10 +36206,10 @@
         <v>118.5108989343405</v>
       </c>
       <c r="M21" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911781</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O21" t="n">
         <v>133.0233611548194</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>23.57100512444648</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L23" t="n">
         <v>47.18298822124898</v>
@@ -36367,7 +36367,7 @@
         <v>81.6678016296418</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874969</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O23" t="n">
         <v>34.55585361291145</v>
@@ -36376,16 +36376,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4860450762374</v>
+        <v>88.71494554853936</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>69.93352136559014</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>47.30138199368479</v>
@@ -36446,7 +36446,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
@@ -36604,7 +36604,7 @@
         <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608804</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
@@ -36616,7 +36616,7 @@
         <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963814</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M27" t="n">
         <v>183.503360791178</v>
@@ -36689,7 +36689,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66338448497098</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63422510939758</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.2464559496439</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.0052152318411</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.00466387479056</v>
+        <v>46.48669620824024</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.0568179787215</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L29" t="n">
         <v>260.671017573378</v>
@@ -36844,7 +36844,7 @@
         <v>289.5657498608787</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0438829650405</v>
+        <v>248.0438829650404</v>
       </c>
       <c r="P29" t="n">
         <v>198.387143240492</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963823</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M30" t="n">
         <v>183.503360791178</v>
@@ -36926,7 +36926,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,19 +36969,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30537910141831</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>42.01881869873066</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.56114713368237</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66338448497107</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>51.21665017281148</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.3320792459911</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6110338056705</v>
+        <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
         <v>207.6628367282463</v>
@@ -37075,7 +37075,7 @@
         <v>261.5809020325985</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409914</v>
+        <v>296.0657154409913</v>
       </c>
       <c r="N32" t="n">
         <v>290.4756343200992</v>
@@ -37084,7 +37084,7 @@
         <v>248.953767424261</v>
       </c>
       <c r="P32" t="n">
-        <v>177.1826855768197</v>
+        <v>177.1826855768194</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6794829109785</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M33" t="n">
         <v>183.503360791178</v>
@@ -37163,7 +37163,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>49.13511813245074</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.9150996910616</v>
       </c>
       <c r="P34" t="n">
-        <v>155.9159520123428</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.13426581116956</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795237</v>
+        <v>31.04691547795236</v>
       </c>
       <c r="J35" t="n">
-        <v>128.2754687490502</v>
+        <v>64.64819671049042</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124898</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="M35" t="n">
-        <v>81.6678016296418</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874969</v>
+        <v>76.07772050874966</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291145</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228649</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201105</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54066735482389</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M36" t="n">
         <v>183.503360791178</v>
@@ -37400,7 +37400,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795237</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>128.2754687490502</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124898</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="M38" t="n">
-        <v>81.6678016296418</v>
+        <v>207.4397912519946</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874969</v>
+        <v>76.07772050874966</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291145</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9581883228649</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3406435341308</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201105</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>44.54066735482389</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M39" t="n">
         <v>183.503360791178</v>
@@ -37637,7 +37637,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,31 +37780,31 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2770818734463</v>
+        <v>200.6633822855436</v>
       </c>
       <c r="L41" t="n">
-        <v>288.1951471777986</v>
+        <v>288.1951471777985</v>
       </c>
       <c r="M41" t="n">
-        <v>81.6678016296418</v>
+        <v>81.66780162964179</v>
       </c>
       <c r="N41" t="n">
-        <v>76.07772050874969</v>
+        <v>317.0898794652992</v>
       </c>
       <c r="O41" t="n">
         <v>275.568012569461</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449126</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561786</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405878</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.978011508408168</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M42" t="n">
         <v>183.503360791178</v>
@@ -37874,7 +37874,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.39523829158148</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>39.69608288926045</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>234.2770818734463</v>
       </c>
       <c r="L44" t="n">
-        <v>47.18298822124898</v>
+        <v>47.18298822124896</v>
       </c>
       <c r="M44" t="n">
-        <v>81.6678016296418</v>
+        <v>214.5594129477894</v>
       </c>
       <c r="N44" t="n">
-        <v>130.8028539358812</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O44" t="n">
-        <v>275.568012569461</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P44" t="n">
         <v>225.9112728449125</v>
@@ -38038,13 +38038,13 @@
         <v>151.2937280561785</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405869</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687153</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54600621008478</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M45" t="n">
         <v>183.503360791178</v>
@@ -38111,7 +38111,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017696</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="R46" t="n">
-        <v>37.58094758314203</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.573630023553012</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.97315388345914</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09270354830696</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.87088614238107</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
